--- a/update_db/product_to_category_sushi.xlsx
+++ b/update_db/product_to_category_sushi.xlsx
@@ -378,11 +378,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -520,6 +520,830 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="3">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="3">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="3">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="3">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="3">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B16"/>
   <conditionalFormatting sqref="A1">
